--- a/data/testdata/projectdata.xlsx
+++ b/data/testdata/projectdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\cmp\data\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cmp\data\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DFB2C8-06A9-45D2-A8E2-014E0DC770E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72820383-8518-41BE-8A38-E5C73FDA7A42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>tenantname</t>
   </si>
@@ -42,6 +42,14 @@
   </si>
   <si>
     <t>wuzs_test_ui_auto_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>casename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,38 +385,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
